--- a/master_sheet for machine learning.xlsx
+++ b/master_sheet for machine learning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasser.halawa.ALMOOSAHOSPITAL\Downloads\reearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC94040-988D-4941-A5D2-478B5EC16066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8B6179-28B2-4C33-8898-8FB500EEFF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="38">
   <si>
     <t>Age</t>
   </si>
@@ -48,30 +48,15 @@
     <t>invasive adenocarcinoma</t>
   </si>
   <si>
-    <t>intramucosal carcinoma</t>
-  </si>
-  <si>
-    <t>well diff. adenocarcinoma</t>
-  </si>
-  <si>
     <t>moderately differentiated adenocarcinoma</t>
   </si>
   <si>
     <t>well differentiated adenocarcinoma</t>
   </si>
   <si>
-    <t>mod. Differentiated adenocarcinoma</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mucoid carcinoma with signet ring </t>
   </si>
   <si>
-    <t>Adenocarcinoma on tubular adenoma</t>
-  </si>
-  <si>
-    <t>adenocarcinoma grade II</t>
-  </si>
-  <si>
     <t xml:space="preserve">short </t>
   </si>
   <si>
@@ -111,69 +96,12 @@
     <t>pathology rsponse</t>
   </si>
   <si>
-    <t>quadrants</t>
-  </si>
-  <si>
     <t>distance from verge by Cm</t>
   </si>
   <si>
-    <t>11-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 - 11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9-6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-1 </t>
-  </si>
-  <si>
     <t>Anal canal in cm</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -181,6 +109,36 @@
   </si>
   <si>
     <t>stageT</t>
+  </si>
+  <si>
+    <t>Qudarants numbers</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>3c</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
+    <t>4b</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2c</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>2b</t>
   </si>
 </sst>
 </file>
@@ -221,7 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -268,11 +226,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -283,9 +250,18 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,14 +542,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F8BC29-A888-423C-B790-563E9A81E7C7}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="9" max="9" width="9.140625" style="14"/>
+    <col min="10" max="10" width="35.7109375" customWidth="1"/>
     <col min="12" max="12" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -582,40 +560,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
       </c>
       <c r="D1" t="s">
         <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>50</v>
+        <v>24</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
-        <v>24</v>
+      <c r="I1" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -628,8 +606,8 @@
       <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>30</v>
+      <c r="D2" s="4">
+        <v>2</v>
       </c>
       <c r="E2" s="5">
         <v>3</v>
@@ -643,20 +621,20 @@
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="15">
         <v>3</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -669,35 +647,35 @@
       <c r="C3" s="5">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>31</v>
+      <c r="D3" s="5">
+        <v>3</v>
       </c>
       <c r="E3" s="5">
         <v>4</v>
       </c>
-      <c r="F3" s="7">
-        <v>3</v>
-      </c>
-      <c r="G3" s="7">
-        <v>2</v>
+      <c r="F3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="5">
-        <v>13</v>
+      <c r="I3" s="15">
+        <v>1.3</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -710,8 +688,8 @@
       <c r="C4" s="5">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>32</v>
+      <c r="D4" s="5">
+        <v>4</v>
       </c>
       <c r="E4" s="5">
         <v>4</v>
@@ -725,20 +703,20 @@
       <c r="H4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="15">
         <v>3</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -751,35 +729,35 @@
       <c r="C5" s="4">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>33</v>
+      <c r="D5" s="4">
+        <v>2</v>
       </c>
       <c r="E5" s="5">
         <v>4</v>
       </c>
-      <c r="F5" s="7">
-        <v>3</v>
-      </c>
-      <c r="G5" s="7">
-        <v>2</v>
+      <c r="F5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="15">
         <v>8</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -792,8 +770,8 @@
       <c r="C6" s="4">
         <v>1.5</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>34</v>
+      <c r="D6" s="4">
+        <v>1</v>
       </c>
       <c r="E6" s="5">
         <v>5</v>
@@ -807,20 +785,20 @@
       <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="15">
         <v>1.4</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -833,8 +811,8 @@
       <c r="C7" s="4">
         <v>4</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>35</v>
+      <c r="D7" s="4">
+        <v>2</v>
       </c>
       <c r="E7" s="4">
         <v>3</v>
@@ -842,26 +820,26 @@
       <c r="F7" s="6">
         <v>2</v>
       </c>
-      <c r="G7" s="7">
-        <v>2</v>
+      <c r="G7" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="15">
         <v>2</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -874,14 +852,14 @@
       <c r="C8" s="5">
         <v>3.2</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>32</v>
+      <c r="D8" s="5">
+        <v>2</v>
       </c>
       <c r="E8" s="4">
         <v>4</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -889,20 +867,20 @@
       <c r="H8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="16">
         <v>3</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -915,8 +893,8 @@
       <c r="C9" s="4">
         <v>3</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>36</v>
+      <c r="D9" s="4">
+        <v>3</v>
       </c>
       <c r="E9" s="4">
         <v>3</v>
@@ -930,20 +908,20 @@
       <c r="H9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="15">
         <v>2</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -956,14 +934,14 @@
       <c r="C10" s="4">
         <v>7</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>37</v>
+      <c r="D10" s="4">
+        <v>1</v>
       </c>
       <c r="E10" s="4">
         <v>3</v>
       </c>
-      <c r="F10" s="6">
-        <v>3</v>
+      <c r="F10" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
@@ -971,20 +949,20 @@
       <c r="H10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="15">
         <v>4.3</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -997,35 +975,35 @@
       <c r="C11" s="5">
         <v>4</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="5">
-        <v>4</v>
-      </c>
-      <c r="F11" s="7">
-        <v>3</v>
-      </c>
-      <c r="G11" s="7">
-        <v>2</v>
-      </c>
       <c r="H11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="15">
         <v>3.5</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1038,14 +1016,14 @@
       <c r="C12" s="5">
         <v>8</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>38</v>
+      <c r="D12" s="5">
+        <v>3</v>
       </c>
       <c r="E12" s="5">
         <v>4</v>
       </c>
-      <c r="F12" s="7">
-        <v>3</v>
+      <c r="F12" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="G12" s="7">
         <v>1</v>
@@ -1053,20 +1031,20 @@
       <c r="H12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="15">
         <v>2</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1079,8 +1057,8 @@
       <c r="C13" s="5">
         <v>9</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>36</v>
+      <c r="D13" s="5">
+        <v>3</v>
       </c>
       <c r="E13" s="5">
         <v>3</v>
@@ -1094,20 +1072,20 @@
       <c r="H13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="15">
         <v>1.5</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1120,35 +1098,35 @@
       <c r="C14" s="5">
         <v>2</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>38</v>
+      <c r="D14" s="5">
+        <v>3</v>
       </c>
       <c r="E14" s="5">
         <v>3</v>
       </c>
-      <c r="F14" s="7">
-        <v>4</v>
-      </c>
-      <c r="G14" s="7">
-        <v>2</v>
+      <c r="F14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="15">
         <v>1.7</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1161,14 +1139,14 @@
       <c r="C15" s="5">
         <v>4</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>39</v>
+      <c r="D15" s="5">
+        <v>2</v>
       </c>
       <c r="E15" s="5">
         <v>5</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
@@ -1176,20 +1154,20 @@
       <c r="H15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="15">
         <v>3.2</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1202,14 +1180,14 @@
       <c r="C16" s="5">
         <v>8</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>40</v>
+      <c r="D16" s="5">
+        <v>3</v>
       </c>
       <c r="E16" s="5">
         <v>4</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G16" s="7">
         <v>1</v>
@@ -1217,20 +1195,20 @@
       <c r="H16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="15">
         <v>1.3</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1243,14 +1221,14 @@
       <c r="C17" s="5">
         <v>3</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>41</v>
+      <c r="D17" s="5">
+        <v>3</v>
       </c>
       <c r="E17" s="5">
         <v>2</v>
       </c>
-      <c r="F17" s="7">
-        <v>4</v>
+      <c r="F17" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="G17" s="7">
         <v>1</v>
@@ -1258,20 +1236,20 @@
       <c r="H17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="15">
         <v>3</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1284,35 +1262,35 @@
       <c r="C18" s="5">
         <v>5</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>42</v>
+      <c r="D18" s="5">
+        <v>3</v>
       </c>
       <c r="E18" s="5">
         <v>4</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="15">
         <v>1.8</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1325,8 +1303,8 @@
       <c r="C19" s="5">
         <v>7</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>43</v>
+      <c r="D19" s="5">
+        <v>2</v>
       </c>
       <c r="E19" s="5">
         <v>3</v>
@@ -1340,20 +1318,20 @@
       <c r="H19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="15">
         <v>1.5</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1366,8 +1344,8 @@
       <c r="C20" s="5">
         <v>2</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>44</v>
+      <c r="D20" s="5">
+        <v>4</v>
       </c>
       <c r="E20" s="5">
         <v>2</v>
@@ -1375,26 +1353,26 @@
       <c r="F20" s="7">
         <v>1</v>
       </c>
-      <c r="G20" s="7">
-        <v>2</v>
+      <c r="G20" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="15">
         <v>2</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1407,35 +1385,35 @@
       <c r="C21" s="5">
         <v>5</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>45</v>
+      <c r="D21" s="5">
+        <v>3</v>
       </c>
       <c r="E21" s="5">
         <v>5</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="7">
-        <v>2</v>
+        <v>31</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="15">
         <v>3</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1448,14 +1426,14 @@
       <c r="C22" s="4">
         <v>1.5</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>34</v>
+      <c r="D22" s="4">
+        <v>3</v>
       </c>
       <c r="E22" s="5">
         <v>5</v>
       </c>
-      <c r="F22" s="7">
-        <v>3</v>
+      <c r="F22" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="G22" s="7">
         <v>1</v>
@@ -1463,20 +1441,20 @@
       <c r="H22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="15">
         <v>2</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1489,14 +1467,14 @@
       <c r="C23" s="4">
         <v>3</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>36</v>
+      <c r="D23" s="4">
+        <v>2</v>
       </c>
       <c r="E23" s="4">
         <v>3</v>
       </c>
-      <c r="F23" s="6">
-        <v>2</v>
+      <c r="F23" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="G23" s="7">
         <v>1</v>
@@ -1504,20 +1482,20 @@
       <c r="H23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="15">
         <v>1.5</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1530,14 +1508,14 @@
       <c r="C24" s="5">
         <v>8</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>40</v>
+      <c r="D24" s="5">
+        <v>3</v>
       </c>
       <c r="E24" s="5">
         <v>4</v>
       </c>
-      <c r="F24" s="7">
-        <v>4</v>
+      <c r="F24" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="G24" s="7">
         <v>2</v>
@@ -1545,20 +1523,20 @@
       <c r="H24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="15">
         <v>2.6</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1571,14 +1549,14 @@
       <c r="C25" s="5">
         <v>3.5</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>32</v>
+      <c r="D25" s="5">
+        <v>2</v>
       </c>
       <c r="E25" s="4">
         <v>4</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G25" s="7">
         <v>1</v>
@@ -1586,20 +1564,20 @@
       <c r="H25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="15">
         <v>1.3</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1612,14 +1590,14 @@
       <c r="C26" s="4">
         <v>7</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>37</v>
+      <c r="D26" s="4">
+        <v>3</v>
       </c>
       <c r="E26" s="4">
         <v>3</v>
       </c>
-      <c r="F26" s="6">
-        <v>3</v>
+      <c r="F26" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="G26" s="7">
         <v>1</v>
@@ -1627,20 +1605,20 @@
       <c r="H26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="15">
         <v>2</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1653,35 +1631,35 @@
       <c r="C27" s="5">
         <v>5</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>42</v>
+      <c r="D27" s="5">
+        <v>3</v>
       </c>
       <c r="E27" s="5">
         <v>4</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="15">
         <v>1.8</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1694,35 +1672,35 @@
       <c r="C28" s="5">
         <v>8</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>40</v>
+      <c r="D28" s="5">
+        <v>3</v>
       </c>
       <c r="E28" s="5">
         <v>4</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="15">
         <v>1.3</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M28" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1735,14 +1713,14 @@
       <c r="C29" s="5">
         <v>3</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>41</v>
+      <c r="D29" s="5">
+        <v>3</v>
       </c>
       <c r="E29" s="5">
         <v>2</v>
       </c>
-      <c r="F29" s="7">
-        <v>4</v>
+      <c r="F29" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="G29" s="7">
         <v>1</v>
@@ -1750,20 +1728,20 @@
       <c r="H29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="5">
-        <v>3</v>
+      <c r="I29" s="15">
+        <v>2.8</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1776,35 +1754,35 @@
       <c r="C30" s="5">
         <v>5</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>42</v>
+      <c r="D30" s="5">
+        <v>2</v>
       </c>
       <c r="E30" s="5">
         <v>4</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="15">
         <v>1.8</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1817,8 +1795,8 @@
       <c r="C31" s="5">
         <v>7</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>43</v>
+      <c r="D31" s="5">
+        <v>2</v>
       </c>
       <c r="E31" s="5">
         <v>3</v>
@@ -1832,20 +1810,20 @@
       <c r="H31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="15">
         <v>1.5</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1858,8 +1836,8 @@
       <c r="C32" s="5">
         <v>2</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>34</v>
+      <c r="D32" s="5">
+        <v>2</v>
       </c>
       <c r="E32" s="5">
         <v>2</v>
@@ -1873,20 +1851,20 @@
       <c r="H32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="15">
         <v>2</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1899,8 +1877,8 @@
       <c r="C33" s="5">
         <v>7</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>43</v>
+      <c r="D33" s="5">
+        <v>3</v>
       </c>
       <c r="E33" s="5">
         <v>3</v>
@@ -1914,20 +1892,225 @@
       <c r="H33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="17">
         <v>1.8</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>61</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11">
+        <v>4</v>
+      </c>
+      <c r="D34" s="11">
+        <v>2</v>
+      </c>
+      <c r="E34" s="11">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="L34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>54</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="11">
+        <v>3</v>
+      </c>
+      <c r="D35" s="11">
+        <v>3</v>
+      </c>
+      <c r="E35" s="11">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>62</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="11">
+        <v>2</v>
+      </c>
+      <c r="D36" s="11">
+        <v>1</v>
+      </c>
+      <c r="E36" s="11">
+        <v>4</v>
+      </c>
+      <c r="F36" s="12">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>46</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="11">
+        <v>2</v>
+      </c>
+      <c r="D37" s="11">
+        <v>4</v>
+      </c>
+      <c r="E37" s="11">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" s="14">
+        <v>2.1</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M37" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L33" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M33" s="7" t="s">
-        <v>21</v>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>48</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="11">
+        <v>3</v>
+      </c>
+      <c r="D38" s="11">
+        <v>3</v>
+      </c>
+      <c r="E38" s="11">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
